--- a/Evaluation/eval001/sub0171/Classifcation Report.xlsx
+++ b/Evaluation/eval001/sub0171/Classifcation Report.xlsx
@@ -400,13 +400,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9509803921568627</v>
+        <v>0.9339622641509434</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9603960396039604</v>
+        <v>0.9801980198019802</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9556650246305418</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="E2" t="n">
         <v>101</v>
@@ -419,13 +419,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.96</v>
+        <v>0.9791666666666666</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9504950495049505</v>
+        <v>0.9306930693069307</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9552238805970149</v>
+        <v>0.9543147208121827</v>
       </c>
       <c r="E3" t="n">
         <v>101</v>
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9554901960784313</v>
+        <v>0.956564465408805</v>
       </c>
       <c r="C5" t="n">
         <v>0.9554455445544554</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9554444526137784</v>
+        <v>0.9554182299713088</v>
       </c>
       <c r="E5" t="n">
         <v>202</v>
@@ -476,13 +476,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9554901960784313</v>
+        <v>0.9565644654088049</v>
       </c>
       <c r="C6" t="n">
         <v>0.9554455445544554</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9554444526137784</v>
+        <v>0.9554182299713089</v>
       </c>
       <c r="E6" t="n">
         <v>202</v>
